--- a/Assignment1/G9_Acceptance.Ass1a.xlsx
+++ b/Assignment1/G9_Acceptance.Ass1a.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PC-Haim\הנדסה\סמסטר ז\שיטות הנדסיות לפיתוח מערכות\מיני פרויקט\מטלה ראשונה\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B00B2F-0C90-4177-A500-F7746ABDCFA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B978CB-DD62-40FB-88CE-9C1D42E17D32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4755" yWindow="2520" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,9 +25,292 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+  <si>
+    <t>קבוצה 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">תאריך ההגשה: </t>
+  </si>
+  <si>
+    <t>שם</t>
+  </si>
+  <si>
+    <t>ת.ז</t>
+  </si>
+  <si>
+    <t>אימייל</t>
+  </si>
+  <si>
+    <t>חיים אזולאי</t>
+  </si>
+  <si>
+    <t>הודיה מקונן</t>
+  </si>
+  <si>
+    <t>אנסטסיה קוקין</t>
+  </si>
+  <si>
+    <t>בר כץ</t>
+  </si>
+  <si>
+    <t>רינת סטודנץ</t>
+  </si>
+  <si>
+    <t>רועי עמר</t>
+  </si>
+  <si>
+    <t>haimazu4@gmail.com</t>
+  </si>
+  <si>
+    <t>hodayamekonen@gmail.com</t>
+  </si>
+  <si>
+    <t>nastyak6@gmail.com</t>
+  </si>
+  <si>
+    <t>barkatz0610@gmail.com</t>
+  </si>
+  <si>
+    <t>rinat20968@gmail.com</t>
+  </si>
+  <si>
+    <t>roi.amar@e.braude.ac.il</t>
+  </si>
+  <si>
+    <t>Req. number</t>
+  </si>
+  <si>
+    <t>Requirement description</t>
+  </si>
+  <si>
+    <t>Req. type (FR or NFR)</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>NFR</t>
+  </si>
+  <si>
+    <t>The system allows identification process</t>
+  </si>
+  <si>
+    <t>The identification process can be done by</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Order number</t>
+  </si>
+  <si>
+    <t>The system allows fast identification</t>
+  </si>
+  <si>
+    <t>The fast identification occurs by the card reader</t>
+  </si>
+  <si>
+    <t>The system checks the visitors capacity in the park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system allows unplanned entries </t>
+  </si>
+  <si>
+    <t>The unplanned entries occurs by checking the visitors capacity</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Test Id</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Precondition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Result  </t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>IdentificationSuccessfulById</t>
+  </si>
+  <si>
+    <t>The id is correct.</t>
+  </si>
+  <si>
+    <t>IdentificationEmptyId</t>
+  </si>
+  <si>
+    <t>The id is wrong.</t>
+  </si>
+  <si>
+    <t>IdentificationSuccessfulByOrderNumber</t>
+  </si>
+  <si>
+    <t>Order number exists in the db</t>
+  </si>
+  <si>
+    <t>The order number is correct.</t>
+  </si>
+  <si>
+    <t>IdentificationEmptyOrderNumber</t>
+  </si>
+  <si>
+    <t>The order number is wrong.</t>
+  </si>
+  <si>
+    <t>FastIdentificationSuccessfulByCardReader</t>
+  </si>
+  <si>
+    <t>The card details exists in the db</t>
+  </si>
+  <si>
+    <t>The card details are correct.</t>
+  </si>
+  <si>
+    <t>FastIdentificationEmptyByCardReader</t>
+  </si>
+  <si>
+    <t>The card details are not exist in the db.</t>
+  </si>
+  <si>
+    <t>The card details are wrong.</t>
+  </si>
+  <si>
+    <t>The id is not exists.</t>
+  </si>
+  <si>
+    <t>The order number is not exists.</t>
+  </si>
+  <si>
+    <t>IdentificationWrongId</t>
+  </si>
+  <si>
+    <t>IdentificationWrongOrderNumber</t>
+  </si>
+  <si>
+    <t>Order number not exists in the db</t>
+  </si>
+  <si>
+    <t>CheckVisitorsCapacityNotFull</t>
+  </si>
+  <si>
+    <t>CheckVisitorsCapacityFull</t>
+  </si>
+  <si>
+    <t>Make sure that the current visitors &lt; max visitors in the park</t>
+  </si>
+  <si>
+    <t>1. Try connecting to the park.</t>
+  </si>
+  <si>
+    <t>current visitors &gt;= max visitors</t>
+  </si>
+  <si>
+    <t>CheckIfLast</t>
+  </si>
+  <si>
+    <t>current = max - 1</t>
+  </si>
+  <si>
+    <t>The first traveler enters, the second one, doesn't.</t>
+  </si>
+  <si>
+    <t>traveler id exists in the db</t>
+  </si>
+  <si>
+    <t>traveler id not exists in the db</t>
+  </si>
+  <si>
+    <t>1. The traveler passes the card. 2. Reads the card.</t>
+  </si>
+  <si>
+    <t>1. The current &lt; max. 1.1. The traveler can enter to the park.</t>
+  </si>
+  <si>
+    <t>The traveler can enter.</t>
+  </si>
+  <si>
+    <t>1. The current &gt;= max. 1.1. The traveler rejected and getting an error message.</t>
+  </si>
+  <si>
+    <t>The traveler can't enter.</t>
+  </si>
+  <si>
+    <t>1. Trying to connect to the park. 
+2. Type a traveler id as blank.</t>
+  </si>
+  <si>
+    <t>1. Trying to connect to the park. 
+2. Type a traveler id.</t>
+  </si>
+  <si>
+    <t>1.1. traveler enter. 
+2.1. System check againinst the db the traveler id. 
+2.2. traveler enter to the park.</t>
+  </si>
+  <si>
+    <t>1.1. traveler enter. 
+2.1. System check againinst the db the traveler id. 
+2.2. traveler rejected and getting an error message.</t>
+  </si>
+  <si>
+    <t>1.1. traveler enter. 
+2.1. System check againinst the db the order number. 
+2.2. traveler rejected and getting an error message.</t>
+  </si>
+  <si>
+    <t>1. Trying to connect to the park. 
+2. Type wrong order number.</t>
+  </si>
+  <si>
+    <t>1. Trying to connect to the park. 
+2. Type an order number.</t>
+  </si>
+  <si>
+    <t>1.1. traveler enter. 
+2.1. System check againinst the db the order number. 
+2.2. traveler enter to the park.</t>
+  </si>
+  <si>
+    <t>1. Trying to connect to the park. 
+2. Type an order number as blank.</t>
+  </si>
+  <si>
+    <t>1. The card is valid. 
+2. System check againinst the db to the card details. 
+2.1. Confirm the card.</t>
+  </si>
+  <si>
+    <t>1. The card is not valid. 
+2. System check againinst the db to the card details. 
+2.1. Getting error message.</t>
+  </si>
+  <si>
+    <t>1. The traveler passes the card. 
+2. Reads the card.</t>
+  </si>
+  <si>
+    <t>1. current = max. 
+1.1. The traveler can't connect. 2. The park is full.</t>
+  </si>
+  <si>
+    <t>1. Try connecting to the park. 
+2. Another traveler trying to connect.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,16 +318,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -51,14 +384,197 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -72,55 +588,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>391628</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9633</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DB1E5E-42AC-416C-9689-DF585AC356E7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="409575" y="190500"/>
-          <a:ext cx="7906853" cy="771633"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,15 +853,1008 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="G1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:H9"/>
+    <sheetView tabSelected="1" topLeftCell="F17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="38.85546875" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="K2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3">
+        <v>203374855</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <v>204632988</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3">
+        <v>321241192</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="K6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3">
+        <v>315818567</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3">
+        <v>316237577</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="K8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3">
+        <v>203118666</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="11" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J12" s="26">
+        <v>1</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J13" s="26">
+        <v>2</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J14" s="26">
+        <v>2.1</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J15" s="26">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="10:17" x14ac:dyDescent="0.25">
+      <c r="J16" s="26">
+        <v>3</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="J17" s="26">
+        <v>4</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="J18" s="26">
+        <v>5</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="J19" s="26">
+        <v>6</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="J20" s="26">
+        <v>7</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="23" spans="7:16" x14ac:dyDescent="0.25">
+      <c r="G23" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I23" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="21"/>
+      <c r="M23" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="24"/>
+      <c r="O23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="24"/>
+    </row>
+    <row r="24" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="25">
+        <v>1</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" s="13"/>
+    </row>
+    <row r="25" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" s="13"/>
+    </row>
+    <row r="26" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="25">
+        <v>3</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="P26" s="13"/>
+    </row>
+    <row r="27" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="25">
+        <v>4</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="13"/>
+    </row>
+    <row r="28" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="25">
+        <v>5</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P28" s="13"/>
+    </row>
+    <row r="29" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G29" s="25">
+        <v>6</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" s="13"/>
+    </row>
+    <row r="30" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="25">
+        <v>7</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="P30" s="13"/>
+    </row>
+    <row r="31" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G31" s="25">
+        <v>8</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="13"/>
+    </row>
+    <row r="32" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G32" s="25">
+        <v>9</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P32" s="13"/>
+    </row>
+    <row r="33" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G33" s="25">
+        <v>10</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="P33" s="13"/>
+    </row>
+    <row r="34" spans="7:16" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G34" s="25">
+        <v>11</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P34" s="13"/>
+    </row>
+    <row r="35" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="7:16" ht="85.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="91">
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="K13:N13"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="K14:N14"/>
+    <mergeCell ref="K15:N15"/>
+    <mergeCell ref="K20:N20"/>
+    <mergeCell ref="K19:N19"/>
+    <mergeCell ref="K18:N18"/>
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="K16:N16"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K3" r:id="rId1" xr:uid="{FE498D62-483F-4ACA-AAB0-37DA5A962A8B}"/>
+    <hyperlink ref="K4" r:id="rId2" xr:uid="{6C4B9F88-819F-4CCC-9856-546A9CDBB531}"/>
+    <hyperlink ref="K5" r:id="rId3" xr:uid="{46C3EF67-3A92-46F7-8FEB-ED7F6FF101CB}"/>
+    <hyperlink ref="K6" r:id="rId4" xr:uid="{A58A2CBC-C436-424F-9CA9-0967D84B4DFC}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{0C7280B6-F688-4C9D-9C70-087B32D9A62E}"/>
+    <hyperlink ref="K8" r:id="rId6" xr:uid="{CF85A6E2-C6D7-4351-8D05-3682C463A424}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{744537E7-1C2D-4E79-975D-92862759E690}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="17"/>
+      <c r="E1" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="17"/>
+    </row>
+    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="19"/>
+      <c r="E5" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="19"/>
+      <c r="H8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="19"/>
+      <c r="E9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="19"/>
+      <c r="E10" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="13"/>
+    </row>
+    <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="19"/>
+      <c r="E11" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>